--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -522,6 +522,9 @@
       <c r="C11" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01295551510500</v>
+        <v>012955515105010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,87 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>751_珍珠李粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +664,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012955515105010</v>
+        <v>0129555151050105535585540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -603,6 +603,9 @@
       <c r="C21" t="str">
         <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
       </c>
+      <c r="F21" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -664,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0129555151050105535585540</v>
+        <v>0129555151050105535585544</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,9 +607,92 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>870_干花安娜绣球红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>876_小菊红丹特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +750,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0129555151050105535585544</v>
+        <v>01295551510501055355855441015555312321250</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -689,6 +689,9 @@
       <c r="A31" t="str">
         <v>5</v>
       </c>
+      <c r="C31" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -692,6 +692,9 @@
       <c r="C31" t="str">
         <v>734_乒乓菊红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -753,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01295551510501055355855441015555312321250</v>
+        <v>01295551510501055355855441015555312321251</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -693,7 +693,7 @@
         <v>734_乒乓菊红_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01295551510501055355855441015555312321251</v>
+        <v>012955515105010553558554410155553123212515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>6</v>
+      </c>
+      <c r="C35" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012955515105010553558554410155553123212515</v>
+        <v>0129555151050105535585544101555531232125155210551058150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -778,6 +778,9 @@
       <c r="A41" t="str">
         <v>7</v>
       </c>
+      <c r="C41" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -781,6 +781,9 @@
       <c r="C41" t="str">
         <v>798_大菊粉_undefined_undefined_5stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -842,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0129555151050105535585544101555531232125155210551058150</v>
+        <v>01295551510501055355855441015555312321251552105510581510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-24.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -785,9 +785,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8</v>
+      </c>
+      <c r="C43" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -845,7 +872,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01295551510501055355855441015555312321251552105510581510</v>
+        <v>012955515105010553558554410155553123212515521055105815102215</v>
       </c>
     </row>
   </sheetData>
